--- a/TestFiles/Spreadsheet.xlsx
+++ b/TestFiles/Spreadsheet.xlsx
@@ -1,200 +1,200 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-  </sheets>
-  <calcPr calcId="152511"/>
-</workbook>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
+  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <x:workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <x:bookViews>
+    <x:workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <x:sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+  </x:sheets>
+  <x:calcPr calcId="152511"/>
+</x:workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Add a comment</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
+<x:comments xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:authors>
+    <x:author>Author</x:author>
+  </x:authors>
+  <x:commentList>
+    <x:comment ref="B3" authorId="0" shapeId="0">
+      <x:text>
+        <x:r>
+          <x:rPr>
+            <x:b/>
+            <x:sz val="9"/>
+            <x:color indexed="81"/>
+            <x:rFont val="Tahoma"/>
+            <x:family val="2"/>
+          </x:rPr>
+          <x:t>Author:</x:t>
+        </x:r>
+        <x:r>
+          <x:rPr>
+            <x:sz val="9"/>
+            <x:color indexed="81"/>
+            <x:rFont val="Tahoma"/>
+            <x:family val="2"/>
+          </x:rPr>
+          <x:t xml:space="preserve">
+Add a comment</x:t>
+        </x:r>
+      </x:text>
+    </x:comment>
+  </x:commentList>
+</x:comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>second sheet</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <x:si>
+    <x:t>a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>second sheet</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="22"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-  </fonts>
-  <fills count="5">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-  </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-  </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-  </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:fonts count="6" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FF9C0006"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="11"/>
+      <x:color theme="0"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="22"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="9"/>
+      <x:color indexed="81"/>
+      <x:name val="Tahoma"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="9"/>
+      <x:color indexed="81"/>
+      <x:name val="Tahoma"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="5">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFC7CE"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFA5A5A5"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFFF00"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+  </x:fills>
+  <x:borders count="2">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="double">
+        <x:color rgb="FF3F3F3F"/>
+      </x:left>
+      <x:right style="double">
+        <x:color rgb="FF3F3F3F"/>
+      </x:right>
+      <x:top style="double">
+        <x:color rgb="FF3F3F3F"/>
+      </x:top>
+      <x:bottom style="double">
+        <x:color rgb="FF3F3F3F"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="3">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+  </x:cellStyleXfs>
+  <x:cellXfs count="7">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+  </x:cellXfs>
+  <x:cellStyles count="3">
+    <x:cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <x:cellStyle name="Check Cell" xfId="2" builtinId="23"/>
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:dxfs count="0"/>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -534,7 +534,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins l="0.7" r="0.7" t="0.75" b="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1831,7 +1831,7 @@
 </file>
 
 <file path=xl/diagrams/data1.xml><?xml version="1.0" encoding="utf-8"?>
-<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<dgm:dataModel xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <dgm:ptLst>
     <dgm:pt modelId="{4CB24837-CB4D-426A-9570-C24FE05D8830}" type="doc">
       <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/default" loCatId="list" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
@@ -2529,7 +2529,7 @@
 </file>
 
 <file path=xl/diagrams/layout1.xml><?xml version="1.0" encoding="utf-8"?>
-<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/default">
+<dgm:layoutDef xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/default">
   <dgm:title val=""/>
   <dgm:desc val=""/>
   <dgm:catLst>
@@ -3710,7 +3710,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -3789,7 +3789,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -3878,15 +3878,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Funny" displayName="Funny" ref="A1:C3" totalsRowShown="0">
-  <autoFilter ref="A1:C3"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="a"/>
-    <tableColumn id="2" name="b"/>
-    <tableColumn id="3" name="c"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Funny" displayName="Funny" ref="A1:C3" totalsRowShown="0">
+  <x:autoFilter ref="A1:C3"/>
+  <x:tableColumns count="3">
+    <x:tableColumn id="1" name="a"/>
+    <x:tableColumn id="2" name="b"/>
+    <x:tableColumn id="3" name="c"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4175,103 +4175,103 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2">
-        <v>2</v>
-      </c>
-      <c r="C9" s="3">
-        <f>A9+B9</f>
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:dimension ref="A1:C9"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="E10" sqref="E10"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <x:c r="A1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <x:c r="A2">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B2">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C2">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <x:c r="A3">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C3">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <x:c r="A9" s="1">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B9" s="2">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C9" s="3">
+        <x:f>A9+B9</x:f>
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup orientation="portrait" r:id="rId1"/>
+  <x:drawing r:id="rId2"/>
+  <x:tableParts count="1">
+    <x:tablePart r:id="rId3"/>
+  </x:tableParts>
+</x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="4">
-        <f ca="1">TODAY()</f>
-        <v>42189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N11" s="6"/>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:dimension ref="A1:N17"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="N11" sqref="N11"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:14" x14ac:dyDescent="0.25"/>
+    <x:row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="B10" s="4">
+        <x:f ca="1">TODAY()</x:f>
+        <x:v>42189</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="N11" s="6"/>
+    </x:row>
+    <x:row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <x:row r="16" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="L16" s="5"/>
+    </x:row>
+    <x:row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </x:sheetData>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:drawing r:id="rId1"/>
+  <x:legacyDrawing r:id="rId2"/>
+</x:worksheet>
 </file>